--- a/posesiones/1381314.xlsx
+++ b/posesiones/1381314.xlsx
@@ -1847,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>20</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>21</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>23</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>6</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>18</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>19</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>10</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>27</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>7</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>10</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>10</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>23</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>18</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3459,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>18</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R39">
         <v>20</v>
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R40">
         <v>21</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R42">
         <v>15</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4059,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R47">
         <v>26</v>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R48">
         <v>22</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53">
         <v>14</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R55">
         <v>11</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>33</v>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R60">
         <v>15</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R62">
         <v>8</v>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R63">
         <v>8</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R69">
         <v>21</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R71">
         <v>14</v>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5650,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R79">
         <v>15</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R86">
         <v>36</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R88">
         <v>18</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R96">
         <v>25</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R98">
         <v>8</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6676,10 +6676,10 @@
         <v>1</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6720,10 +6720,10 @@
         <v>1</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R102">
         <v>11</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R104">
         <v>22</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6973,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <v>19</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7073,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R108">
         <v>17</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R110">
         <v>6</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7276,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R112">
         <v>7</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7426,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R115">
         <v>27</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R117">
         <v>16</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R119">
         <v>14</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8017,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R127">
         <v>22</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R130">
         <v>10</v>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8270,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R132">
         <v>15</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8414,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8464,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R136">
         <v>14</v>
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R142">
         <v>27</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8858,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R144">
         <v>16</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8958,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R146">
         <v>18</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R151">
         <v>23</v>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R152">
         <v>24</v>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9349,7 +9349,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R154">
         <v>20</v>
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R155">
         <v>27</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R161">
         <v>32</v>
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9793,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R163">
         <v>15</v>
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9940,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10087,7 +10087,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R169">
         <v>22</v>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R172">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10337,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R174">
         <v>14</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10440,7 +10440,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R176">
         <v>20</v>
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10540,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10637,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R180">
         <v>17</v>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10737,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10884,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R185">
         <v>16</v>
@@ -10934,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R191">
         <v>13</v>
@@ -11228,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R192">
         <v>13</v>
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11328,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R194">
         <v>14</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R200">
         <v>0</v>
@@ -11669,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R201">
         <v>14</v>
@@ -11722,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11772,7 +11772,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R203">
         <v>25</v>
@@ -11825,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R204">
         <v>19</v>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11966,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12154,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R212">
         <v>4</v>
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12307,7 +12307,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R214">
         <v>6</v>
@@ -12351,10 +12351,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q215">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12771,10 +12771,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R231">
         <v>40</v>
@@ -13159,7 +13159,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R232">
         <v>14</v>
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13256,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13356,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R236">
         <v>29</v>
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13456,7 +13456,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R238">
         <v>18</v>
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13559,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R240">
         <v>10</v>
@@ -13612,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R241">
         <v>20</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R243">
         <v>16</v>
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R245">
         <v>4</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13912,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R247">
         <v>4</v>
@@ -13965,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R248">
         <v>12</v>
@@ -14018,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14068,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R250">
         <v>7</v>
@@ -14118,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14165,7 +14165,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14215,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R253">
         <v>10</v>
@@ -14268,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14362,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14409,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R259">
         <v>17</v>
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14697,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R265">
         <v>11</v>
@@ -14847,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R267">
         <v>12</v>
@@ -14950,7 +14950,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15000,7 +15000,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R269">
         <v>22</v>
@@ -15050,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15097,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15144,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15241,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R274">
         <v>18</v>
@@ -15294,7 +15294,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R275">
         <v>17</v>
@@ -15347,7 +15347,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15397,7 +15397,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R277">
         <v>20</v>
@@ -15447,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15497,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R279">
         <v>8</v>
@@ -15550,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15600,7 +15600,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R281">
         <v>21</v>
@@ -15653,7 +15653,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15703,7 +15703,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R283">
         <v>14</v>
@@ -15756,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15806,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R285">
         <v>15</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15947,7 +15947,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16041,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16091,7 +16091,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R291">
         <v>0</v>
@@ -16144,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R292">
         <v>9</v>
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16241,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16385,7 +16385,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R297">
         <v>4</v>
@@ -16438,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R298">
         <v>16</v>
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16585,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16682,7 +16682,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R303">
         <v>14</v>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16779,7 +16779,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16826,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16873,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16920,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16967,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17014,7 +17014,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17111,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17299,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17349,7 +17349,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R317">
         <v>34</v>
@@ -17402,7 +17402,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R318">
         <v>17</v>
@@ -17455,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17505,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R320">
         <v>7</v>
@@ -17555,7 +17555,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17605,7 +17605,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R322">
         <v>11</v>
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17749,7 +17749,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17843,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17940,7 +17940,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R329">
         <v>32</v>
@@ -17993,7 +17993,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18043,7 +18043,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R331">
         <v>18</v>
@@ -18093,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18140,7 +18140,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18237,7 +18237,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R335">
         <v>20</v>
@@ -18290,7 +18290,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R336">
         <v>19</v>
@@ -18343,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18393,7 +18393,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R338">
         <v>6</v>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18493,7 +18493,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R340">
         <v>18</v>
@@ -18549,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R341">
         <v>3</v>
@@ -18593,10 +18593,10 @@
         <v>1</v>
       </c>
       <c r="P342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q342">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18643,7 +18643,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18690,7 +18690,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18919,10 +18919,10 @@
         <v>1</v>
       </c>
       <c r="P349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q349">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18972,7 +18972,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R350">
         <v>10</v>
@@ -19025,7 +19025,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R351">
         <v>21</v>
@@ -19078,7 +19078,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R352">
         <v>21</v>
@@ -19128,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R354">
         <v>10</v>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19278,7 +19278,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R356">
         <v>7</v>
@@ -19328,7 +19328,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19475,7 +19475,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R360">
         <v>30</v>
@@ -19528,7 +19528,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R361">
         <v>8</v>
@@ -19578,7 +19578,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19628,7 +19628,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R363">
         <v>15</v>
@@ -19681,7 +19681,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19728,7 +19728,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19778,7 +19778,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19828,7 +19828,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R367">
         <v>15</v>
@@ -19881,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19931,7 +19931,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R369">
         <v>14</v>
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20031,7 +20031,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20081,7 +20081,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20131,7 +20131,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R373">
         <v>16</v>
@@ -20181,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20225,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20272,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20319,7 +20319,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20413,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R379">
         <v>0</v>
@@ -20466,7 +20466,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R380">
         <v>18</v>
@@ -20516,7 +20516,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20566,7 +20566,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R382">
         <v>11</v>
@@ -20616,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20666,7 +20666,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20716,7 +20716,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R385">
         <v>18</v>
@@ -20769,7 +20769,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20819,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R387">
         <v>20</v>
@@ -20872,7 +20872,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20922,7 +20922,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R389">
         <v>6</v>
@@ -20972,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21063,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21110,7 +21110,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21160,7 +21160,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R394">
         <v>15</v>
@@ -21210,7 +21210,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21257,7 +21257,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21304,7 +21304,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21354,7 +21354,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R398">
         <v>20</v>
@@ -21404,7 +21404,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21498,7 +21498,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21545,7 +21545,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21592,7 +21592,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21642,7 +21642,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R404">
         <v>30</v>
@@ -21695,7 +21695,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R405">
         <v>22</v>
@@ -21745,7 +21745,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21792,7 +21792,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21839,7 +21839,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21886,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21936,7 +21936,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R410">
         <v>12</v>
@@ -21989,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22039,7 +22039,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R412">
         <v>20</v>
@@ -22092,7 +22092,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R413">
         <v>20</v>
@@ -22142,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22189,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R417">
         <v>26</v>
@@ -22336,7 +22336,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R418">
         <v>17</v>
@@ -22386,7 +22386,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22436,7 +22436,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R420">
         <v>5</v>
@@ -22486,7 +22486,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22536,7 +22536,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R422">
         <v>15</v>
@@ -22586,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22636,7 +22636,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R424">
         <v>23</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22736,7 +22736,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R426">
         <v>11</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22833,7 +22833,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22930,7 +22930,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22977,7 +22977,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23024,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23165,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23212,7 +23212,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R437">
         <v>15</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23359,7 +23359,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23406,7 +23406,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23453,7 +23453,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23503,7 +23503,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R442">
         <v>22</v>
@@ -23553,7 +23553,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23647,7 +23647,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23744,7 +23744,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R447">
         <v>23</v>
@@ -23797,7 +23797,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R448">
         <v>11</v>
@@ -23850,7 +23850,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23900,7 +23900,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R450">
         <v>11</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23997,7 +23997,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24044,7 +24044,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24094,7 +24094,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R454">
         <v>11</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24288,7 +24288,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24338,7 +24338,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R459">
         <v>3</v>
@@ -24391,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R460">
         <v>9</v>
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24491,7 +24491,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R462">
         <v>4</v>
@@ -24541,7 +24541,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24591,7 +24591,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R464">
         <v>10</v>
@@ -24641,7 +24641,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24691,7 +24691,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R466">
         <v>4</v>
@@ -24735,10 +24735,10 @@
         <v>1</v>
       </c>
       <c r="P467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q467">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
